--- a/16.- X1. Liquidity Funding Risk.xlsx
+++ b/16.- X1. Liquidity Funding Risk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF08E3F3-C48C-4344-BBA5-2AC6E14CCA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90861C79-8C73-DE47-83AB-EAF48E8AC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{290A1C89-F290-304F-A272-24133CB5A2A2}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="18380" activeTab="1" xr2:uid="{290A1C89-F290-304F-A272-24133CB5A2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -524,29 +524,27 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -1035,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB27C3A9-4933-614A-997F-8D422D05D8F3}">
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,11 +1083,11 @@
       <c r="H5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="14"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -1103,26 +1101,26 @@
       <c r="D6" s="6">
         <v>2649</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <f>3124+350*(1+0.11/12)+C17</f>
         <v>3529.186387415115</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <f>5786+250*(1+0.111/12*3)-428+540*(1+0.111/12*3)+C17*2+400*(1+0.105/12*3)</f>
         <v>6684.3786081635626</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <f>6892+312*(1+0.1125/12*6)-800+324*(1+0.1125/12*6)+C17*3</f>
         <v>6919.7091622453445</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <f>10504+C17*6+900*(1+0.1125)</f>
         <v>11817.118324490688</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="31" t="s">
         <v>63</v>
       </c>
       <c r="L6" s="14" t="s">
@@ -1155,16 +1153,16 @@
       <c r="H7" s="6">
         <v>6147</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="30" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1196,32 +1194,32 @@
         <f>H6-H7</f>
         <v>5670.1183244906879</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="E9" s="12"/>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="30" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1238,16 +1236,16 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="34" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1263,7 +1261,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="33" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1295,13 +1293,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="M13" s="35" t="s">
+      <c r="M13" s="33" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1333,7 +1331,7 @@
         <f t="shared" si="2"/>
         <v>5670.1183244906879</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="M14" s="36" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1367,136 +1365,136 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <f>PMT(0.1175/12,5*12,-2350)</f>
         <v>51.978054081781444</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <f>SUM(C12:E12)/SUM(C7:E7)</f>
         <v>0.53572552722694367</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="28" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D27" s="29"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>13</v>
       </c>
     </row>

--- a/16.- X1. Liquidity Funding Risk.xlsx
+++ b/16.- X1. Liquidity Funding Risk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90861C79-8C73-DE47-83AB-EAF48E8AC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2082C80-106F-7A4F-8475-C29723C7F95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="18380" activeTab="1" xr2:uid="{290A1C89-F290-304F-A272-24133CB5A2A2}"/>
   </bookViews>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB27C3A9-4933-614A-997F-8D422D05D8F3}">
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/16.- X1. Liquidity Funding Risk.xlsx
+++ b/16.- X1. Liquidity Funding Risk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2082C80-106F-7A4F-8475-C29723C7F95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AC80F5-94F1-2846-8A23-4357E61488FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="18380" activeTab="1" xr2:uid="{290A1C89-F290-304F-A272-24133CB5A2A2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{290A1C89-F290-304F-A272-24133CB5A2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -1034,7 +1034,7 @@
   <dimension ref="A2:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
